--- a/Code/Results/Cases/Case_3_86/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_86/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.942565105107747</v>
+        <v>0.6491417538996131</v>
       </c>
       <c r="C2">
-        <v>0.8550622659571445</v>
+        <v>0.256339892275065</v>
       </c>
       <c r="D2">
-        <v>0.04036232018174957</v>
+        <v>0.0319362122164577</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.486916753160699</v>
+        <v>1.458825228356432</v>
       </c>
       <c r="G2">
-        <v>0.0007683851013941313</v>
+        <v>0.00242508982862988</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.383477619818962</v>
+        <v>0.9498458055058308</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.806690938446152</v>
+        <v>0.8896129614439019</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.676851170805918</v>
+        <v>0.5790475637801933</v>
       </c>
       <c r="C3">
-        <v>0.7362755076906069</v>
+        <v>0.2242670765544972</v>
       </c>
       <c r="D3">
-        <v>0.03851837059976404</v>
+        <v>0.03139188200895404</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.191588960945538</v>
+        <v>1.387923714114891</v>
       </c>
       <c r="G3">
-        <v>0.0007774778987001456</v>
+        <v>0.002430377603421512</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.240283172986111</v>
+        <v>0.9160288785624573</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.380645334621789</v>
+        <v>0.7916966004980708</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.515606090709639</v>
+        <v>0.5362934349374768</v>
       </c>
       <c r="C4">
-        <v>0.664483878799615</v>
+        <v>0.2046309756737514</v>
       </c>
       <c r="D4">
-        <v>0.0374891888339306</v>
+        <v>0.03106734738516792</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.015986896916317</v>
+        <v>1.345228952570807</v>
       </c>
       <c r="G4">
-        <v>0.0007831728880067769</v>
+        <v>0.002433790573904417</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.155641539425574</v>
+        <v>0.8957553043151734</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.129707872977761</v>
+        <v>0.7321389162060825</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.45029429049589</v>
+        <v>0.5189418616138539</v>
       </c>
       <c r="C5">
-        <v>0.6354671604188979</v>
+        <v>0.1966427771276926</v>
       </c>
       <c r="D5">
-        <v>0.03709229001248815</v>
+        <v>0.03093745156037997</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.945681314145688</v>
+        <v>1.328038231075382</v>
       </c>
       <c r="G5">
-        <v>0.0007855246171367948</v>
+        <v>0.00243522335138507</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.121870453970573</v>
+        <v>0.8876149453819551</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.029645563882795</v>
+        <v>0.7080032487233154</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.439471027233481</v>
+        <v>0.5160649302519573</v>
       </c>
       <c r="C6">
-        <v>0.6306620551565914</v>
+        <v>0.1953171514609835</v>
       </c>
       <c r="D6">
-        <v>0.03702765292916865</v>
+        <v>0.03091602231111423</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.934077754003155</v>
+        <v>1.32519617743111</v>
       </c>
       <c r="G6">
-        <v>0.0007859170670264978</v>
+        <v>0.002435463802196808</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.116303523610611</v>
+        <v>0.8862705131405733</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.01315032266595</v>
+        <v>0.7040034629326613</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.514723769061504</v>
+        <v>0.5360591381586914</v>
       </c>
       <c r="C7">
-        <v>0.6640916425687919</v>
+        <v>0.2045231894556991</v>
       </c>
       <c r="D7">
-        <v>0.03748374919404895</v>
+        <v>0.03106558613731636</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.015033887818191</v>
+        <v>1.344996275626286</v>
       </c>
       <c r="G7">
-        <v>0.0007832044753157685</v>
+        <v>0.002433809726722164</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.155183300007394</v>
+        <v>0.8956450320898028</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.128350084468764</v>
+        <v>0.731812878540552</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.850499930007771</v>
+        <v>0.6249141059284398</v>
       </c>
       <c r="C8">
-        <v>0.8138362725012485</v>
+        <v>0.2452690384210712</v>
       </c>
       <c r="D8">
-        <v>0.03970295425411408</v>
+        <v>0.03174646773900136</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.38377884103231</v>
+        <v>1.434202257125122</v>
       </c>
       <c r="G8">
-        <v>0.0007714988644270624</v>
+        <v>0.002426878642401974</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.333357007017781</v>
+        <v>0.9380827999556516</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.657261337780398</v>
+        <v>0.8557301382571012</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.528209055446894</v>
+        <v>0.8014374442337839</v>
       </c>
       <c r="C9">
-        <v>1.119056007867897</v>
+        <v>0.3256529522031713</v>
       </c>
       <c r="D9">
-        <v>0.04505386055744509</v>
+        <v>0.03316224863583273</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.162115914857708</v>
+        <v>1.615948975092238</v>
       </c>
       <c r="G9">
-        <v>0.0007492838229384238</v>
+        <v>0.002414598732728137</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.714209831848706</v>
+        <v>1.025285740100443</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.806236076722243</v>
+        <v>1.103538541354439</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.04438677175267</v>
+        <v>0.9325697272616367</v>
       </c>
       <c r="C10">
-        <v>1.354376901588637</v>
+        <v>0.3850541090577622</v>
       </c>
       <c r="D10">
-        <v>0.04990647435219842</v>
+        <v>0.0342567826000959</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.783848970140554</v>
+        <v>1.753863709895739</v>
       </c>
       <c r="G10">
-        <v>0.0007331609540458473</v>
+        <v>0.002406366295235886</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.022260303598642</v>
+        <v>1.091917921544919</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.768780816993967</v>
+        <v>1.289026284251648</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.284860647264622</v>
+        <v>0.9925504919585819</v>
       </c>
       <c r="C11">
-        <v>1.464920624517845</v>
+        <v>0.4121630147251949</v>
       </c>
       <c r="D11">
-        <v>0.05240776188675511</v>
+        <v>0.03476766346062732</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.082150173753178</v>
+        <v>1.817608210739763</v>
       </c>
       <c r="G11">
-        <v>0.0007257950037209265</v>
+        <v>0.0024027904192467</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.171139090808268</v>
+        <v>1.122817455939682</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.249004879770595</v>
+        <v>1.37426359570712</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.376896500338944</v>
+        <v>1.015311572959604</v>
       </c>
       <c r="C12">
-        <v>1.507392416132973</v>
+        <v>0.4224417760098618</v>
       </c>
       <c r="D12">
-        <v>0.05340772691970841</v>
+        <v>0.03496307885166772</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.197830639773514</v>
+        <v>1.841895240696545</v>
       </c>
       <c r="G12">
-        <v>0.000722992912522551</v>
+        <v>0.002401460476110574</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.229055718938724</v>
+        <v>1.134605222224295</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.438988489172573</v>
+        <v>1.40667313295836</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.357028894169218</v>
+        <v>1.010407438636321</v>
       </c>
       <c r="C13">
-        <v>1.498216231565038</v>
+        <v>0.4202274622537061</v>
       </c>
       <c r="D13">
-        <v>0.05318981825197966</v>
+        <v>0.03492090420854765</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.172786583217913</v>
+        <v>1.836657936731001</v>
       </c>
       <c r="G13">
-        <v>0.0007235971170716262</v>
+        <v>0.002401745830978404</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.216508597380354</v>
+        <v>1.132062620864971</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.397669440400094</v>
+        <v>1.399687147544</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.292412000360571</v>
+        <v>0.9944221015036305</v>
       </c>
       <c r="C14">
-        <v>1.468401862528196</v>
+        <v>0.4130083858811417</v>
       </c>
       <c r="D14">
-        <v>0.0524889005999043</v>
+        <v>0.03478370068155101</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.091609484145295</v>
+        <v>1.819603324644902</v>
       </c>
       <c r="G14">
-        <v>0.0007255647853241347</v>
+        <v>0.002402680520522907</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.175871201912344</v>
+        <v>1.123785490622112</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.264457490309411</v>
+        <v>1.376927251647544</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.252964128548115</v>
+        <v>0.9846368439373236</v>
       </c>
       <c r="C15">
-        <v>1.450222857409983</v>
+        <v>0.4085882339687146</v>
       </c>
       <c r="D15">
-        <v>0.05206680577676792</v>
+        <v>0.0346999169799318</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.042257183205891</v>
+        <v>1.809176313793131</v>
       </c>
       <c r="G15">
-        <v>0.0007267680931149644</v>
+        <v>0.002403256187242939</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.151189685282887</v>
+        <v>1.118726876749193</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.183994054317168</v>
+        <v>1.363003611406384</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.028798381445313</v>
+        <v>0.9286564857363828</v>
       </c>
       <c r="C16">
-        <v>1.347231812491884</v>
+        <v>0.3832842883189755</v>
       </c>
       <c r="D16">
-        <v>0.04974975711557761</v>
+        <v>0.03422366407912847</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.764705360962211</v>
+        <v>1.749718419245596</v>
       </c>
       <c r="G16">
-        <v>0.0007336410472454654</v>
+        <v>0.002406603376993238</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.012729261508596</v>
+        <v>1.089910588106719</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.738407744345935</v>
+        <v>1.283473823434889</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.892837794877948</v>
+        <v>0.8943987085215213</v>
       </c>
       <c r="C17">
-        <v>1.285017006093369</v>
+        <v>0.3677839138009062</v>
       </c>
       <c r="D17">
-        <v>0.04841020855572964</v>
+        <v>0.03393488486436524</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.598716755830623</v>
+        <v>1.71350327274456</v>
       </c>
       <c r="G17">
-        <v>0.0007378440993938109</v>
+        <v>0.002408699971513433</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.930208239175073</v>
+        <v>1.072384941680241</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.477143169418454</v>
+        <v>1.234910697918394</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.815159166064063</v>
+        <v>0.8747253852023391</v>
       </c>
       <c r="C18">
-        <v>1.249554180359553</v>
+        <v>0.3588766567464177</v>
       </c>
       <c r="D18">
-        <v>0.04766662169712532</v>
+        <v>0.03377000219592929</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.50466542810338</v>
+        <v>1.692767783897096</v>
       </c>
       <c r="G18">
-        <v>0.0007402592092376136</v>
+        <v>0.002409921802619006</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.883547253291127</v>
+        <v>1.062359886628755</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.330702344937436</v>
+        <v>1.207058700765543</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.788943665832562</v>
+        <v>0.868069618879872</v>
       </c>
       <c r="C19">
-        <v>1.237599274261299</v>
+        <v>0.3558621911921023</v>
       </c>
       <c r="D19">
-        <v>0.04741919758856028</v>
+        <v>0.03371438177760666</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.473052025541165</v>
+        <v>1.68576322456039</v>
       </c>
       <c r="G19">
-        <v>0.0007410767323736381</v>
+        <v>0.002410338233624928</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.867879024447149</v>
+        <v>1.058974995041723</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.281727013857676</v>
+        <v>1.197642013270254</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.907255878901424</v>
+        <v>0.8980423116567522</v>
       </c>
       <c r="C20">
-        <v>1.29160587710021</v>
+        <v>0.3694331068298311</v>
       </c>
       <c r="D20">
-        <v>0.04854995594006795</v>
+        <v>0.03396549945171756</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.616236241237488</v>
+        <v>1.717348629643453</v>
       </c>
       <c r="G20">
-        <v>0.000737396975826061</v>
+        <v>0.002408475138017158</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.938907815970822</v>
+        <v>1.074244844392453</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.504546140043061</v>
+        <v>1.240071960443842</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.311363762097528</v>
+        <v>0.9991160847096126</v>
       </c>
       <c r="C21">
-        <v>1.477141513982701</v>
+        <v>0.415128439560533</v>
       </c>
       <c r="D21">
-        <v>0.05269324554393506</v>
+        <v>0.0348239468736935</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.115374783475005</v>
+        <v>1.824608621532462</v>
       </c>
       <c r="G21">
-        <v>0.0007249872571694304</v>
+        <v>0.002402405325162706</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.187763004586074</v>
+        <v>1.126214311500505</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.303344217863454</v>
+        <v>1.383608731796897</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.581233863669752</v>
+        <v>1.065451733749114</v>
       </c>
       <c r="C22">
-        <v>1.602027960354008</v>
+        <v>0.4450702954748635</v>
       </c>
       <c r="D22">
-        <v>0.05571612987642283</v>
+        <v>0.03539643513592239</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.457774137316363</v>
+        <v>1.895575775816525</v>
       </c>
       <c r="G22">
-        <v>0.0007167966654507804</v>
+        <v>0.002398579124436822</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.359566130393205</v>
+        <v>1.160686239952199</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.874399689707744</v>
+        <v>1.478191996386556</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.436614368058201</v>
+        <v>1.030021530707245</v>
       </c>
       <c r="C23">
-        <v>1.535000591454377</v>
+        <v>0.4290824557737665</v>
       </c>
       <c r="D23">
-        <v>0.0540695939726632</v>
+        <v>0.03508981012095802</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.273350369671363</v>
+        <v>1.857618761235045</v>
       </c>
       <c r="G23">
-        <v>0.0007211788505971714</v>
+        <v>0.002400608409483497</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.266919807640349</v>
+        <v>1.142240810763028</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.564236134661996</v>
+        <v>1.427637416224755</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.900735958283065</v>
+        <v>0.8963949704115066</v>
       </c>
       <c r="C24">
-        <v>1.288626105549042</v>
+        <v>0.3686874938974825</v>
       </c>
       <c r="D24">
-        <v>0.04848669424097807</v>
+        <v>0.03395165505232711</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.608311426254659</v>
+        <v>1.715609879055734</v>
       </c>
       <c r="G24">
-        <v>0.0007375991238053147</v>
+        <v>0.002408576733875956</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.934972323532676</v>
+        <v>1.073403824708549</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.492145676753282</v>
+        <v>1.237738343776726</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.342181707736756</v>
+        <v>0.7534340465837204</v>
       </c>
       <c r="C25">
-        <v>1.034866090425254</v>
+        <v>0.3038503625796523</v>
       </c>
       <c r="D25">
-        <v>0.04347090286550781</v>
+        <v>0.03277007790540409</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.944134697911068</v>
+        <v>1.566028411643202</v>
       </c>
       <c r="G25">
-        <v>0.0007552375857774926</v>
+        <v>0.002417781375262405</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.606971895251689</v>
+        <v>1.001254659084765</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.479046297500389</v>
+        <v>1.035935060772204</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_86/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_86/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6491417538996131</v>
+        <v>1.942565105107832</v>
       </c>
       <c r="C2">
-        <v>0.256339892275065</v>
+        <v>0.8550622659575993</v>
       </c>
       <c r="D2">
-        <v>0.0319362122164577</v>
+        <v>0.04036232018175667</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.458825228356432</v>
+        <v>2.486916753160699</v>
       </c>
       <c r="G2">
-        <v>0.00242508982862988</v>
+        <v>0.0007683851014518388</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9498458055058308</v>
+        <v>1.383477619818976</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8896129614439019</v>
+        <v>2.806690938446152</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5790475637801933</v>
+        <v>1.676851170805946</v>
       </c>
       <c r="C3">
-        <v>0.2242670765544972</v>
+        <v>0.7362755076907206</v>
       </c>
       <c r="D3">
-        <v>0.03139188200895404</v>
+        <v>0.03851837059966812</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.387923714114891</v>
+        <v>2.191588960945523</v>
       </c>
       <c r="G3">
-        <v>0.002430377603421512</v>
+        <v>0.0007774778987044151</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9160288785624573</v>
+        <v>1.240283172986096</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7916966004980708</v>
+        <v>2.380645334621803</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5362934349374768</v>
+        <v>1.515606090709412</v>
       </c>
       <c r="C4">
-        <v>0.2046309756737514</v>
+        <v>0.6644838787993592</v>
       </c>
       <c r="D4">
-        <v>0.03106734738516792</v>
+        <v>0.03748918883390928</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.345228952570807</v>
+        <v>2.015986896916317</v>
       </c>
       <c r="G4">
-        <v>0.002433790573904417</v>
+        <v>0.000783172888056848</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8957553043151734</v>
+        <v>1.155641539425559</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7321389162060825</v>
+        <v>2.129707872977775</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5189418616138539</v>
+        <v>1.450294290495691</v>
       </c>
       <c r="C5">
-        <v>0.1966427771276926</v>
+        <v>0.6354671604192106</v>
       </c>
       <c r="D5">
-        <v>0.03093745156037997</v>
+        <v>0.03709229001236025</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.328038231075382</v>
+        <v>1.945681314145716</v>
       </c>
       <c r="G5">
-        <v>0.00243522335138507</v>
+        <v>0.0007855246171904392</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8876149453819551</v>
+        <v>1.121870453970573</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7080032487233154</v>
+        <v>2.029645563882781</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5160649302519573</v>
+        <v>1.439471027233594</v>
       </c>
       <c r="C6">
-        <v>0.1953171514609835</v>
+        <v>0.6306620551568187</v>
       </c>
       <c r="D6">
-        <v>0.03091602231111423</v>
+        <v>0.03702765292915444</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.32519617743111</v>
+        <v>1.93407775400317</v>
       </c>
       <c r="G6">
-        <v>0.002435463802196808</v>
+        <v>0.0007859170670202388</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8862705131405733</v>
+        <v>1.116303523610625</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7040034629326613</v>
+        <v>2.013150322665936</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5360591381586914</v>
+        <v>1.514723769061561</v>
       </c>
       <c r="C7">
-        <v>0.2045231894556991</v>
+        <v>0.664091642568934</v>
       </c>
       <c r="D7">
-        <v>0.03106558613731636</v>
+        <v>0.03748374919415554</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.344996275626286</v>
+        <v>2.015033887818191</v>
       </c>
       <c r="G7">
-        <v>0.002433809726722164</v>
+        <v>0.0007832044753720568</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8956450320898028</v>
+        <v>1.155183300007408</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.731812878540552</v>
+        <v>2.12835008446875</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6249141059284398</v>
+        <v>1.850499930007828</v>
       </c>
       <c r="C8">
-        <v>0.2452690384210712</v>
+        <v>0.8138362725008221</v>
       </c>
       <c r="D8">
-        <v>0.03174646773900136</v>
+        <v>0.03970295425390802</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.434202257125122</v>
+        <v>2.38377884103231</v>
       </c>
       <c r="G8">
-        <v>0.002426878642401974</v>
+        <v>0.000771498864486845</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9380827999556516</v>
+        <v>1.333357007017753</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8557301382571012</v>
+        <v>2.657261337780383</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8014374442337839</v>
+        <v>2.52820905544678</v>
       </c>
       <c r="C9">
-        <v>0.3256529522031713</v>
+        <v>1.119056007867869</v>
       </c>
       <c r="D9">
-        <v>0.03316224863583273</v>
+        <v>0.04505386055743088</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.615948975092238</v>
+        <v>3.162115914857736</v>
       </c>
       <c r="G9">
-        <v>0.002414598732728137</v>
+        <v>0.0007492838229357014</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.025285740100443</v>
+        <v>1.714209831848706</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.103538541354439</v>
+        <v>3.806236076722257</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9325697272616367</v>
+        <v>3.044386771752784</v>
       </c>
       <c r="C10">
-        <v>0.3850541090577622</v>
+        <v>1.35437690158858</v>
       </c>
       <c r="D10">
-        <v>0.0342567826000959</v>
+        <v>0.0499064743521842</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.753863709895739</v>
+        <v>3.78384897014061</v>
       </c>
       <c r="G10">
-        <v>0.002406366295235886</v>
+        <v>0.0007331609539874286</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.091917921544919</v>
+        <v>2.022260303598657</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.289026284251648</v>
+        <v>4.768780816993953</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9925504919585819</v>
+        <v>3.284860647264622</v>
       </c>
       <c r="C11">
-        <v>0.4121630147251949</v>
+        <v>1.464920624518129</v>
       </c>
       <c r="D11">
-        <v>0.03476766346062732</v>
+        <v>0.05240776188693985</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.817608210739763</v>
+        <v>4.082150173753234</v>
       </c>
       <c r="G11">
-        <v>0.0024027904192467</v>
+        <v>0.0007257950037687236</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.122817455939682</v>
+        <v>2.17113909080831</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.37426359570712</v>
+        <v>5.249004879770638</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.015311572959604</v>
+        <v>3.376896500338944</v>
       </c>
       <c r="C12">
-        <v>0.4224417760098618</v>
+        <v>1.507392416133257</v>
       </c>
       <c r="D12">
-        <v>0.03496307885166772</v>
+        <v>0.05340772691942419</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.841895240696545</v>
+        <v>4.197830639773542</v>
       </c>
       <c r="G12">
-        <v>0.002401460476110574</v>
+        <v>0.0007229929124485945</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.134605222224295</v>
+        <v>2.229055718938724</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.40667313295836</v>
+        <v>5.438988489172544</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.010407438636321</v>
+        <v>3.357028894169105</v>
       </c>
       <c r="C13">
-        <v>0.4202274622537061</v>
+        <v>1.498216231564868</v>
       </c>
       <c r="D13">
-        <v>0.03492090420854765</v>
+        <v>0.05318981825197966</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.836657936731001</v>
+        <v>4.172786583217913</v>
       </c>
       <c r="G13">
-        <v>0.002401745830978404</v>
+        <v>0.0007235971170531652</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.132062620864971</v>
+        <v>2.21650859738034</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.399687147544</v>
+        <v>5.39766944040008</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9944221015036305</v>
+        <v>3.292412000360684</v>
       </c>
       <c r="C14">
-        <v>0.4130083858811417</v>
+        <v>1.468401862528424</v>
       </c>
       <c r="D14">
-        <v>0.03478370068155101</v>
+        <v>0.05248890059974798</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.819603324644902</v>
+        <v>4.091609484145323</v>
       </c>
       <c r="G14">
-        <v>0.002402680520522907</v>
+        <v>0.0007255647852504102</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.123785490622112</v>
+        <v>2.175871201912344</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.376927251647544</v>
+        <v>5.264457490309383</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9846368439373236</v>
+        <v>3.252964128547944</v>
       </c>
       <c r="C15">
-        <v>0.4085882339687146</v>
+        <v>1.450222857409642</v>
       </c>
       <c r="D15">
-        <v>0.0346999169799318</v>
+        <v>0.0520668057764766</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.809176313793131</v>
+        <v>4.042257183206033</v>
       </c>
       <c r="G15">
-        <v>0.002403256187242939</v>
+        <v>0.0007267680930488253</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.118726876749193</v>
+        <v>2.151189685282958</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.363003611406384</v>
+        <v>5.183994054317253</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9286564857363828</v>
+        <v>3.028798381445029</v>
       </c>
       <c r="C16">
-        <v>0.3832842883189755</v>
+        <v>1.347231812491884</v>
       </c>
       <c r="D16">
-        <v>0.03422366407912847</v>
+        <v>0.04974975711579077</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.749718419245596</v>
+        <v>3.764705360962211</v>
       </c>
       <c r="G16">
-        <v>0.002406603376993238</v>
+        <v>0.0007336410472282424</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.089910588106719</v>
+        <v>2.012729261508596</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.283473823434889</v>
+        <v>4.738407744345992</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8943987085215213</v>
+        <v>2.892837794877778</v>
       </c>
       <c r="C17">
-        <v>0.3677839138009062</v>
+        <v>1.285017006092858</v>
       </c>
       <c r="D17">
-        <v>0.03393488486436524</v>
+        <v>0.04841020855606359</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.71350327274456</v>
+        <v>3.598716755830623</v>
       </c>
       <c r="G17">
-        <v>0.002408699971513433</v>
+        <v>0.0007378440994452173</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.072384941680241</v>
+        <v>1.930208239175073</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.234910697918394</v>
+        <v>4.477143169418468</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8747253852023391</v>
+        <v>2.815159166064177</v>
       </c>
       <c r="C18">
-        <v>0.3588766567464177</v>
+        <v>1.24955418035961</v>
       </c>
       <c r="D18">
-        <v>0.03377000219592929</v>
+        <v>0.0476666216969619</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.692767783897096</v>
+        <v>3.504665428103408</v>
       </c>
       <c r="G18">
-        <v>0.002409921802619006</v>
+        <v>0.000740259209233041</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.062359886628755</v>
+        <v>1.883547253291141</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.207058700765543</v>
+        <v>4.330702344937421</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.868069618879872</v>
+        <v>2.78894366583279</v>
       </c>
       <c r="C19">
-        <v>0.3558621911921023</v>
+        <v>1.237599274261527</v>
       </c>
       <c r="D19">
-        <v>0.03371438177760666</v>
+        <v>0.04741919758861712</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.68576322456039</v>
+        <v>3.473052025541193</v>
       </c>
       <c r="G19">
-        <v>0.002410338233624928</v>
+        <v>0.0007410767323842744</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.058974995041723</v>
+        <v>1.867879024447163</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.197642013270254</v>
+        <v>4.281727013857676</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8980423116567522</v>
+        <v>2.907255878901481</v>
       </c>
       <c r="C20">
-        <v>0.3694331068298311</v>
+        <v>1.291605877100437</v>
       </c>
       <c r="D20">
-        <v>0.03396549945171756</v>
+        <v>0.04854995594006084</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.717348629643453</v>
+        <v>3.616236241237544</v>
       </c>
       <c r="G20">
-        <v>0.002408475138017158</v>
+        <v>0.000737396975822118</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.074244844392453</v>
+        <v>1.93890781597085</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.240071960443842</v>
+        <v>4.504546140043118</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9991160847096126</v>
+        <v>3.311363762097471</v>
       </c>
       <c r="C21">
-        <v>0.415128439560533</v>
+        <v>1.477141513982872</v>
       </c>
       <c r="D21">
-        <v>0.0348239468736935</v>
+        <v>0.05269324554394927</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.824608621532462</v>
+        <v>4.115374783475005</v>
       </c>
       <c r="G21">
-        <v>0.002402405325162706</v>
+        <v>0.0007249872570966875</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.126214311500505</v>
+        <v>2.187763004586088</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.383608731796897</v>
+        <v>5.30334421786344</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.065451733749114</v>
+        <v>3.581233863669866</v>
       </c>
       <c r="C22">
-        <v>0.4450702954748635</v>
+        <v>1.602027960354462</v>
       </c>
       <c r="D22">
-        <v>0.03539643513592239</v>
+        <v>0.05571612987616703</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.895575775816525</v>
+        <v>4.45777413731642</v>
       </c>
       <c r="G22">
-        <v>0.002398579124436822</v>
+        <v>0.0007167966655191351</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.160686239952199</v>
+        <v>2.359566130393247</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.478191996386556</v>
+        <v>5.874399689707744</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.030021530707245</v>
+        <v>3.436614368058088</v>
       </c>
       <c r="C23">
-        <v>0.4290824557737665</v>
+        <v>1.53500059145432</v>
       </c>
       <c r="D23">
-        <v>0.03508981012095802</v>
+        <v>0.05406959397275557</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.857618761235045</v>
+        <v>4.273350369671363</v>
       </c>
       <c r="G23">
-        <v>0.002400608409483497</v>
+        <v>0.0007211788505076742</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.142240810763028</v>
+        <v>2.266919807640321</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.427637416224755</v>
+        <v>5.56423613466194</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8963949704115066</v>
+        <v>2.900735958283235</v>
       </c>
       <c r="C24">
-        <v>0.3686874938974825</v>
+        <v>1.288626105549042</v>
       </c>
       <c r="D24">
-        <v>0.03395165505232711</v>
+        <v>0.04848669424110597</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.715609879055734</v>
+        <v>3.608311426254687</v>
       </c>
       <c r="G24">
-        <v>0.002408576733875956</v>
+        <v>0.0007375991237499648</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.073403824708549</v>
+        <v>1.934972323532662</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.237738343776726</v>
+        <v>4.49214567675331</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7534340465837204</v>
+        <v>2.342181707736643</v>
       </c>
       <c r="C25">
-        <v>0.3038503625796523</v>
+        <v>1.034866090424742</v>
       </c>
       <c r="D25">
-        <v>0.03277007790540409</v>
+        <v>0.04347090286527333</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.566028411643202</v>
+        <v>2.944134697911124</v>
       </c>
       <c r="G25">
-        <v>0.002417781375262405</v>
+        <v>0.0007552375857824302</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.001254659084765</v>
+        <v>1.606971895251689</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.035935060772204</v>
+        <v>3.479046297500346</v>
       </c>
       <c r="N25">
         <v>0</v>
